--- a/biology/Biochimie/Caspase_9/Caspase_9.xlsx
+++ b/biology/Biochimie/Caspase_9/Caspase_9.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La caspase 9 est une protéase à cystéine de la famille des caspases (de l'anglais cysteine-dependent aspartate-directed proteases). Elle est codée chez l'homme par le gène CASP9, situé sur le chromosome 1. Des orthologues de CASP9 ont été identifiés chez tous les mammifère pour lesquels on dispose de données génomiques complètes. Des orthologues spécifiques ont également été relevés chez les oiseaux, les sauriens, les lissamphibiens et les téléostéens.
